--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -44,7 +44,40 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 9:45 AM</t>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Friday, 26 September, 2025 10:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +287,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +299,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +707,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>18</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>24</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +817,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -77,7 +77,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 10:26 AM</t>
+    <t>Friday, 26 September, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -59,15 +59,48 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>MENTOVAL DROPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -77,7 +110,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 11:22 AM</t>
+    <t>Friday, 26 September, 2025 3:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -757,53 +790,152 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
       </c>
-      <c t="s" r="Q8" s="12">
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>22</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
         <v>23</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
         <v>24</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>20</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>22</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>23</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>35</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -822,10 +954,25 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -98,6 +98,27 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PENDULINE KIDS HAIR CREAM 150ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -110,7 +131,16 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 3:24 PM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Friday, 26 September, 2025 3:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -889,7 +919,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -900,42 +930,141 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>158</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>33</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>22</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>23</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>22</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>23</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>306.82999999999998</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>43</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>44</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>45</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1098,25 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -110,7 +110,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>51.00</t>
@@ -140,7 +140,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 3:57 PM</t>
+    <t>Friday, 26 September, 2025 4:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -140,7 +140,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 4:33 PM</t>
+    <t>Friday, 26 September, 2025 4:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>MENTOVAL DROPS</t>
   </si>
   <si>
@@ -128,7 +140,16 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -140,7 +161,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 4:54 PM</t>
+    <t>Friday, 26 September, 2025 4:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -853,15 +874,15 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>20</v>
@@ -873,28 +894,28 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>20</v>
@@ -906,14 +927,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -923,11 +944,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -939,14 +960,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -963,7 +984,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -979,24 +1000,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1012,13 +1033,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1029,42 +1050,108 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>44</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>27</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>306.82999999999998</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>43</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>44</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>45</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>26</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>27</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>328.82999999999998</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>50</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>51</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>52</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1113,10 +1200,20 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -71,9 +83,6 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
   </si>
   <si>
@@ -110,6 +119,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>PENDULINE KIDS HAIR CREAM 150ML</t>
   </si>
   <si>
@@ -119,6 +140,27 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -161,7 +203,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 4:57 PM</t>
+    <t>Friday, 26 September, 2025 5:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -852,7 +894,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -861,14 +903,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -878,14 +920,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -894,31 +936,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -927,20 +969,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -951,7 +993,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -967,7 +1009,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -984,7 +1026,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1006,7 +1048,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1033,13 +1075,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1050,7 +1092,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1066,24 +1108,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1092,20 +1134,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1116,42 +1158,174 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>328.82999999999998</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>50</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>51</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>52</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>29</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>30</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>58</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>30</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>29</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>30</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>591.83000000000004</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>65</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>66</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1210,10 +1384,30 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t>38.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
   </si>
   <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
@@ -1174,7 +1192,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1184,11 +1202,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1200,31 +1218,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1233,31 +1251,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1266,7 +1284,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1283,49 +1301,115 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>63</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>64</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>30</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>591.83000000000004</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>64</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>65</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>66</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>29</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>30</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>635.83000000000004</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>70</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>71</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>72</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1488,20 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -221,7 +221,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 5:42 PM</t>
+    <t>Friday, 26 September, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -200,6 +212,21 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>25.3000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>حلمة ببرونه</t>
   </si>
   <si>
@@ -221,7 +248,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 5:43 PM</t>
+    <t>Friday, 26 September, 2025 5:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1027,7 +1054,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1037,14 +1064,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1053,20 +1080,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1077,7 +1104,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1093,24 +1120,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1119,14 +1146,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1136,11 +1163,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>17</v>
@@ -1152,14 +1179,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1192,7 +1219,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1202,14 +1229,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1218,14 +1245,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1235,14 +1262,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1275,7 +1302,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1291,24 +1318,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1317,14 +1344,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1341,7 +1368,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1357,7 +1384,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1367,49 +1394,115 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>635.83000000000004</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>70</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>71</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>72</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>73</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>30</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>29</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>30</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>710.63</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>79</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>80</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>81</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1498,10 +1591,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 5:44 PM</t>
+    <t>Friday, 26 September, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -44,27 +44,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>39.0000</t>
   </si>
   <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -131,6 +152,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -140,9 +173,6 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>PENDULINE KIDS HAIR CREAM 150ML</t>
   </si>
   <si>
@@ -179,18 +209,21 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -245,10 +278,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Friday, 26 September, 2025 5:53 PM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>Friday, 26 September, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -988,7 +1021,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -998,14 +1031,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1014,31 +1047,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1047,14 +1080,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1064,11 +1097,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1080,20 +1113,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1104,7 +1137,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1126,7 +1159,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1137,7 +1170,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1153,7 +1186,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1170,7 +1203,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1186,7 +1219,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1196,14 +1229,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1212,28 +1245,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1252,7 +1285,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1266,7 +1299,7 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1278,14 +1311,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1302,7 +1335,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1351,13 +1384,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1365,10 +1398,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,31 +1410,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,31 +1443,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1443,66 +1476,198 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>710.63</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>36</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>37</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>76</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>78</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>79</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>37</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>80</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>84</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>37</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>85</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>36</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>37</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>88</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>905.63</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>90</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>91</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>92</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1601,10 +1766,30 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALFACARENO 2MCG/ML ORAL DROPS. 10 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -83,6 +95,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -119,9 +143,6 @@
     <t>MENTOVAL DROPS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -281,7 +302,16 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 5:55 PM</t>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>Friday, 26 September, 2025 6:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -939,7 +969,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -948,14 +978,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -972,7 +1002,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1005,7 +1035,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1021,7 +1051,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1031,14 +1061,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1047,14 +1077,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1064,14 +1094,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1080,14 +1110,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1104,7 +1134,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1126,18 +1156,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1146,14 +1176,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1163,14 +1193,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1179,7 +1209,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1192,7 +1222,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1203,7 +1233,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1236,7 +1266,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1252,24 +1282,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1285,7 +1315,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1295,14 +1325,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1311,31 +1341,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1344,14 +1374,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1368,7 +1398,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1384,7 +1414,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1398,10 +1428,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1410,14 +1440,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1427,14 +1457,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1443,14 +1473,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1460,14 +1490,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1476,14 +1506,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1493,14 +1523,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1509,31 +1539,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1555,7 +1585,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1566,7 +1596,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1575,31 +1605,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1608,66 +1638,165 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>89</v>
       </c>
-      <c t="s" r="Q28" s="12">
-        <v>32</v>
-      </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>905.63</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>90</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
         <v>91</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>44</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>92</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>44</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>95</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>97</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>68</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>44</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>98</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1115.6300000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>100</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>101</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>102</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1786,10 +1915,25 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -230,6 +230,18 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TAVACIN 500MG 5 F.C. TAB</t>
   </si>
   <si>
@@ -311,7 +323,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 6:04 PM</t>
+    <t>Friday, 26 September, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1513,7 +1525,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1523,14 +1535,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1539,14 +1551,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1556,11 +1568,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1572,14 +1584,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1589,14 +1601,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1612,24 +1624,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1638,14 +1650,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1662,7 +1674,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,14 +1683,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1688,14 +1700,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1711,7 +1723,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1721,14 +1733,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1737,14 +1749,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1754,49 +1766,82 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1115.6300000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>100</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>101</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>68</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>44</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>102</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1157.21</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>104</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>105</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>106</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1930,10 +1975,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -296,13 +305,13 @@
     <t>حلمة ببرونه</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>20.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -323,7 +332,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 6:05 PM</t>
+    <t>Friday, 26 September, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1360,24 +1369,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1393,24 +1402,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1426,7 +1435,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1459,7 +1468,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1469,11 +1478,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1485,14 +1494,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1506,10 +1515,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1518,14 +1527,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1539,7 +1548,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1575,7 +1584,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1591,7 +1600,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1601,11 +1610,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,20 +1659,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1674,7 +1683,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1690,7 +1699,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1700,14 +1709,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1733,14 +1742,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1789,7 +1798,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1806,42 +1815,75 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1157.21</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>71</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>44</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>105</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1235.21</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>107</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>108</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>109</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1980,10 +2022,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -266,6 +266,24 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -332,7 +350,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 6:18 PM</t>
+    <t>Friday, 26 September, 2025 6:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1666,7 +1684,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1676,14 +1694,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1692,31 +1710,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1725,31 +1743,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,14 +1776,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1775,11 +1793,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>40</v>
@@ -1791,14 +1809,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1808,14 +1826,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1824,14 +1842,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1848,42 +1866,108 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1235.21</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>107</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>12</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>44</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>108</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>71</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>44</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>111</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1289.21</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>113</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>114</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>115</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2027,10 +2111,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -269,10 +278,16 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
+    <t>-4:0</t>
+  </si>
+  <si>
     <t>28.00</t>
   </si>
   <si>
-    <t>28.0000</t>
+    <t>196.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
@@ -350,7 +365,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 6:19 PM</t>
+    <t>Friday, 26 September, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1189,7 +1204,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1199,11 +1214,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1215,14 +1230,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1232,11 +1247,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1248,28 +1263,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1281,31 +1296,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1314,14 +1329,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1338,7 +1353,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1354,7 +1369,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1364,11 +1379,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1380,14 +1395,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1420,24 +1435,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1453,24 +1468,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1486,7 +1501,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1519,7 +1534,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1529,11 +1544,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1545,14 +1560,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1566,10 +1581,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1578,14 +1593,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1599,7 +1614,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1611,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1635,7 +1650,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1651,7 +1666,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1661,11 +1676,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1677,14 +1692,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1694,11 +1709,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1717,7 +1732,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1727,14 +1742,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1743,14 +1758,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1760,14 +1775,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1776,31 +1791,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1809,31 +1824,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1855,7 +1870,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1866,7 +1881,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>40</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1875,31 +1890,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1908,66 +1923,99 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1289.21</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>113</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>114</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>115</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>74</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>47</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>116</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1500.21</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>118</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>119</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>120</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2121,10 +2169,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -116,6 +116,12 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
     <t>DIPROSALIC LOTION 30 ML</t>
   </si>
   <si>
@@ -209,9 +215,6 @@
     <t>5:1</t>
   </si>
   <si>
-    <t>62.00</t>
-  </si>
-  <si>
     <t>PENDULINE KIDS HAIR CREAM 150ML</t>
   </si>
   <si>
@@ -296,7 +299,10 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -365,7 +371,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 6:25 PM</t>
+    <t>Friday, 26 September, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1204,7 +1210,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1218,10 +1224,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1230,14 +1236,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1247,11 +1253,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1263,14 +1269,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1280,11 +1286,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1296,28 +1302,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1329,31 +1335,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1362,14 +1368,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1379,14 +1385,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1395,14 +1401,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1412,11 +1418,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1428,14 +1434,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1445,11 +1451,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1461,31 +1467,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1494,31 +1500,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1527,14 +1533,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1544,11 +1550,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1560,14 +1566,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1577,11 +1583,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1593,14 +1599,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1610,14 +1616,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1626,14 +1632,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1643,11 +1649,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1659,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1676,14 +1682,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1692,14 +1698,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1709,11 +1715,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1725,14 +1731,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,14 +1748,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1758,14 +1764,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1775,14 +1781,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,14 +1797,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,14 +1814,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1824,31 +1830,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,31 +1863,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>107</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,31 +1896,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>43</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,31 +1929,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,66 +1962,99 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>117</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1500.21</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>75</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>49</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>118</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1583.21</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
         <v>120</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>121</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>122</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2174,10 +2213,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -155,12 +155,21 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>MENTOVAL DROPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -371,7 +380,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 6:34 PM</t>
+    <t>Friday, 26 September, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,7 +1351,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1359,7 +1368,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1375,24 +1384,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1401,14 +1410,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1425,7 +1434,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1441,7 +1450,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1451,11 +1460,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1467,14 +1476,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1507,24 +1516,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1533,31 +1542,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1573,7 +1582,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1606,7 +1615,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1616,11 +1625,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1653,10 +1662,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1686,7 +1695,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1722,7 +1731,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1738,7 +1747,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,11 +1757,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,20 +1872,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1887,7 +1896,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1903,7 +1912,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2002,7 +2011,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2019,42 +2028,75 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1583.21</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>120</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>78</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>49</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>121</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1594.21</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>123</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>124</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>125</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2218,10 +2260,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -62,6 +62,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -77,12 +95,6 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>CLEAREST 14 CAPS</t>
   </si>
   <si>
@@ -116,6 +128,15 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -158,9 +179,6 @@
     <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -218,12 +236,33 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>184.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
     <t>5:1</t>
   </si>
   <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>PENDULINE KIDS HAIR CREAM 150ML</t>
   </si>
   <si>
@@ -257,9 +296,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -311,19 +347,37 @@
     <t>78.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>67.8300</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -362,13 +416,40 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
   </si>
   <si>
     <t>مناديل سولو سحب صغيره</t>
@@ -380,7 +461,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 6:39 PM</t>
+    <t>Friday, 26 September, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1054,24 +1135,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1080,14 +1161,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1097,14 +1178,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1113,14 +1194,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1130,14 +1211,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1170,7 +1251,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1186,7 +1267,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1196,11 +1277,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1212,14 +1293,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1229,14 +1310,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1245,14 +1326,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1262,14 +1343,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1278,14 +1359,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1295,14 +1376,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1318,7 +1399,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1328,11 +1409,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1344,31 +1425,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1377,20 +1458,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1417,24 +1498,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1443,28 +1524,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1476,14 +1557,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1493,14 +1574,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1509,14 +1590,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1526,11 +1607,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1542,31 +1623,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1575,14 +1656,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1592,11 +1673,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1608,14 +1689,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,14 +1706,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1641,31 +1722,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1681,7 +1762,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1695,10 +1776,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1707,14 +1788,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1731,7 +1812,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1790,11 +1871,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1806,14 +1887,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1823,14 +1904,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,14 +1920,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1856,14 +1937,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,14 +1953,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1889,14 +1970,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,31 +1986,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,31 +2019,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1971,31 +2052,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,31 +2085,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,66 +2118,396 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1594.21</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>121</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>19</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>122</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>123</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>19</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>124</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>126</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>127</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>19</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>128</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>131</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>132</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>19</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>133</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>135</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>12</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>19</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>136</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>138</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>12</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>19</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>139</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>140</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>12</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>19</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>124</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>142</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>12</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>19</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>118</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>143</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>144</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>19</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>145</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>147</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>91</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>19</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>148</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2116.21</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>150</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>151</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>152</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2265,10 +2676,60 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -80,6 +80,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -89,6 +101,21 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CAPRY TOP SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -107,6 +134,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -128,6 +164,18 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -164,12 +212,30 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -185,6 +251,12 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
     <t>MENTOVAL DROPS</t>
   </si>
   <si>
@@ -206,6 +278,15 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -221,12 +302,21 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
+    <t>NEXIUM 40MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>244.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -239,9 +329,6 @@
     <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -254,6 +341,24 @@
     <t>5:1</t>
   </si>
   <si>
+    <t>PANAX LIFE 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>PARAMOL 1000 MG 20 TABS.</t>
   </si>
   <si>
@@ -299,9 +404,6 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -401,9 +503,6 @@
     <t>25.3000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>حلمة ببرونه</t>
   </si>
   <si>
@@ -449,7 +548,16 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>72.0000</t>
+    <t>مزيل عرق فوج FOGG MASTER</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
   </si>
   <si>
     <t>مناديل سولو سحب صغيره</t>
@@ -461,7 +569,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 6:50 PM</t>
+    <t>Friday, 26 September, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1168,7 +1276,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1178,11 +1286,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1194,14 +1302,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1211,14 +1319,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1227,14 +1335,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1244,14 +1352,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1260,14 +1368,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1277,14 +1385,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1293,14 +1401,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1310,14 +1418,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1326,14 +1434,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1343,14 +1451,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1359,14 +1467,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1376,14 +1484,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1392,7 +1500,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1409,11 +1517,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1425,14 +1533,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1442,11 +1550,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1458,14 +1566,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1475,14 +1583,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1491,31 +1599,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1524,28 +1632,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1557,14 +1665,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1574,14 +1682,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1590,14 +1698,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1607,11 +1715,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1623,14 +1731,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1640,11 +1748,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1656,14 +1764,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1673,11 +1781,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1689,31 +1797,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1722,31 +1830,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1755,31 +1863,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1788,14 +1896,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1805,14 +1913,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1821,14 +1929,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1838,11 +1946,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1854,14 +1962,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1871,11 +1979,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1887,14 +1995,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1904,14 +2012,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1920,14 +2028,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1937,14 +2045,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1953,14 +2061,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1970,11 +2078,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1986,14 +2094,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2003,14 +2111,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2019,31 +2127,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2052,14 +2160,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2069,14 +2177,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2085,14 +2193,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2102,14 +2210,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2125,24 +2233,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2151,31 +2259,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2184,31 +2292,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2217,31 +2325,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2250,31 +2358,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2283,31 +2391,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2316,31 +2424,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2349,28 +2457,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2382,31 +2490,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2422,24 +2530,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2448,66 +2556,495 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>149</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
-      </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2116.21</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>150</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>151</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>19</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>152</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>154</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>155</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>19</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>156</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>157</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>19</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>158</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>160</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>161</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>19</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>162</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>164</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>165</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>19</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>166</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>168</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>12</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>19</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>169</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>171</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>19</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>172</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>173</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>12</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>19</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>158</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>175</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>19</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>152</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>176</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>177</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>19</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>178</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>179</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>34</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>19</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>25</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>180</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>177</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>19</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>181</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>183</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>126</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>19</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>184</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3491.21</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>186</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>187</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>188</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2726,10 +3263,75 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
-    <t>2:5</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>0</t>
@@ -74,52 +74,64 @@
     <t>78.00</t>
   </si>
   <si>
+    <t>13.2600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CAPRY TOP SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
     <t>39.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CAPRY TOP SOAP 80 GM</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>0:1</t>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
   </si>
   <si>
     <t>CLEAREST 14 CAPS</t>
@@ -179,279 +191,282 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>MENTOVAL DROPS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>NEXIUM 40MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>244.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>257.6000</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANAX LIFE 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PENDULINE KIDS HAIR CREAM 150ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>-4:0</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>196.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>5:2</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>DIPROSALIC LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>0:12</t>
-  </si>
-  <si>
-    <t>MENTOVAL DROPS</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NEXIUM 40MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>488.00</t>
-  </si>
-  <si>
-    <t>244.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>184.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>PANAX LIFE 20 CAPSULES</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 1000 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PENDULINE KIDS HAIR CREAM 150ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>SILVIRBURN CREAM 250 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TAVACIN 500MG 5 F.C. TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>-4:0</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>196.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -461,6 +476,21 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>-33.6600</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -476,12 +506,18 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>33:0</t>
+    <t>35:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -521,7 +557,7 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>22.4000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -542,18 +578,27 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>41:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>182.4000</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>مزيل عرق فوج FOGG MASTER</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
     <t>18:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>مزيل عرق فوج FOGG MASTER</t>
-  </si>
-  <si>
-    <t>مناديل سولو سحب</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -569,7 +614,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 7:01 PM</t>
+    <t>Friday, 26 September, 2025 7:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1375,7 +1420,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1389,10 +1434,10 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1414,7 +1459,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1425,7 +1470,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1441,7 +1486,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1451,14 +1496,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1467,14 +1512,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1507,7 +1552,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1517,11 +1562,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1533,14 +1578,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1587,10 +1632,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1599,14 +1644,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1616,14 +1661,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1632,14 +1677,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1649,14 +1694,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1665,14 +1710,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1682,11 +1727,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1698,14 +1743,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1715,11 +1760,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1731,14 +1776,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1748,11 +1793,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1764,14 +1809,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,11 +1826,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1797,31 +1842,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1837,24 +1882,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1863,28 +1908,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1903,24 +1948,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1929,14 +1974,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1946,14 +1991,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1962,14 +2007,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1979,11 +2024,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1995,14 +2040,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2012,11 +2057,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2028,14 +2073,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,14 +2090,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2061,14 +2106,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,14 +2123,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2094,14 +2139,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,14 +2156,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2127,31 +2172,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2160,28 +2205,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2193,14 +2238,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,11 +2255,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2226,7 +2271,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2243,14 +2288,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2259,14 +2304,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2321,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,14 +2337,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,11 +2354,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2325,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2365,7 +2410,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,14 +2420,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2391,14 +2436,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,14 +2453,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,14 +2469,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,14 +2486,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2502,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,11 +2519,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2490,14 +2535,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2552,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2568,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2547,7 +2592,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>52</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2556,14 +2601,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,14 +2618,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>149</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2602,7 +2647,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2613,7 +2658,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,31 +2667,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>52</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2655,14 +2700,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,14 +2717,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2688,14 +2733,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2705,14 +2750,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>71</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,14 +2766,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2738,11 +2783,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -2754,14 +2799,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2771,14 +2816,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,14 +2832,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2804,14 +2849,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>165</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2820,7 +2865,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2837,14 +2882,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2853,7 +2898,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2870,14 +2915,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2886,14 +2931,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2903,14 +2948,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2919,14 +2964,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,11 +2981,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2952,14 +2997,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2969,14 +3014,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2985,14 +3030,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3002,49 +3047,115 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3491.21</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>186</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>187</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>188</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>194</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>195</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>19</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>196</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>198</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>130</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>19</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>199</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3671.21</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>201</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>202</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>203</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3328,10 +3439,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -347,6 +347,15 @@
     <t>5:1</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -389,6 +398,12 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
@@ -509,9 +524,6 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>92.0000</t>
   </si>
   <si>
@@ -548,9 +560,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -572,9 +581,24 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم بانسيه</t>
+  </si>
+  <si>
+    <t>كريم جلايسوليد</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -593,6 +617,15 @@
     <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -614,7 +647,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 7:08 PM</t>
+    <t>Friday, 26 September, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2218,15 +2251,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2238,24 +2271,24 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2278,7 +2311,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2328,7 +2361,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2344,7 +2377,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2361,7 +2394,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2377,7 +2410,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2410,7 +2443,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,11 +2453,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2436,14 +2469,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,14 +2486,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2476,7 +2509,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,14 +2519,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2502,14 +2535,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2519,14 +2552,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,14 +2568,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2552,14 +2585,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2575,7 +2608,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2585,14 +2618,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2601,14 +2634,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2618,14 +2651,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2634,14 +2667,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2651,14 +2684,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2667,14 +2700,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2684,14 +2717,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>159</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2700,31 +2733,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2733,31 +2766,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2766,14 +2799,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,14 +2816,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,14 +2832,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,14 +2849,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>76</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,14 +2865,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2849,11 +2882,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -2865,14 +2898,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2882,14 +2915,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2898,14 +2931,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2915,14 +2948,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>177</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2931,7 +2964,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2948,14 +2981,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,7 +2997,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2981,14 +3014,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3004,7 +3037,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3014,14 +3047,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,14 +3063,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3047,11 +3080,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3063,14 +3096,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3080,11 +3113,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3096,14 +3129,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3113,49 +3146,280 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>193</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>19</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>194</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>196</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>197</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>19</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>198</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>200</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3671.21</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>201</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>34</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>19</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>25</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>202</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>108</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>19</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>70</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>203</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>204</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>19</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>194</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>205</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>206</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>19</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>207</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>209</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>135</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>19</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>210</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3966.21</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>212</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>213</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>214</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3449,10 +3713,45 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -80,6 +80,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -266,6 +275,15 @@
     <t>0:12</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t>MENTOVAL DROPS</t>
   </si>
   <si>
@@ -275,6 +293,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -314,9 +344,6 @@
     <t>NEXIUM 40MG 28 F.C. TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>488.00</t>
   </si>
   <si>
@@ -431,12 +458,6 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
     <t>TAVACIN 500MG 5 F.C. TAB</t>
   </si>
   <si>
@@ -647,7 +668,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 7:39 PM</t>
+    <t>Friday, 26 September, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1354,7 +1375,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1364,14 +1385,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1380,14 +1401,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1420,7 +1441,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1430,14 +1451,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1446,14 +1467,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1463,14 +1484,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1479,31 +1500,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1512,31 +1533,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1545,14 +1566,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1569,7 +1590,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1585,7 +1606,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1595,11 +1616,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1611,14 +1632,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1651,7 +1672,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1661,11 +1682,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1677,14 +1698,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1694,14 +1715,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1710,14 +1731,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1731,7 +1752,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1743,14 +1764,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1760,14 +1781,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1783,7 +1804,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1793,11 +1814,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1809,14 +1830,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1849,7 +1870,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1859,11 +1880,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1875,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1892,11 +1913,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1908,31 +1929,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1948,24 +1969,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1974,28 +1995,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2014,7 +2035,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2047,13 +2068,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2080,7 +2101,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2090,14 +2111,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2106,14 +2127,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2123,14 +2144,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2139,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2163,7 +2184,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2179,7 +2200,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2222,14 +2243,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2238,14 +2259,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2255,14 +2276,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2271,28 +2292,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2304,14 +2325,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2328,7 +2349,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2337,14 +2358,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2354,11 +2375,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2370,31 +2391,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2410,7 +2431,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2443,7 +2464,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2453,11 +2474,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2469,7 +2490,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2486,14 +2507,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2502,14 +2523,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2542,7 +2563,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2552,14 +2573,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2568,14 +2589,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2585,14 +2606,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2601,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2618,11 +2639,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2634,14 +2655,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2651,14 +2672,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2667,14 +2688,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2684,14 +2705,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2700,14 +2721,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2717,14 +2738,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2733,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2750,14 +2771,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2766,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2783,14 +2804,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2799,31 +2820,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2832,31 +2853,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2865,31 +2886,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2898,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2915,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2931,14 +2952,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2948,14 +2969,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2964,7 +2985,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2981,14 +3002,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>111</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2997,14 +3018,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3014,14 +3035,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>181</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3030,14 +3051,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3047,14 +3068,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3070,7 +3091,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,14 +3101,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3096,7 +3117,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3113,14 +3134,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3129,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3146,11 +3167,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3162,14 +3183,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3179,11 +3200,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3195,14 +3216,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3212,14 +3233,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3228,14 +3249,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3245,11 +3266,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3261,14 +3282,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3278,14 +3299,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3311,14 +3332,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3327,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3344,11 +3365,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3367,7 +3388,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3377,49 +3398,148 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>210</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
         <v>211</v>
       </c>
-      <c t="s" r="Q70" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3966.21</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>19</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>201</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>212</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
         <v>213</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>19</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
         <v>214</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>216</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>144</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>19</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>217</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4113</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>219</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>220</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>221</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3748,10 +3868,25 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -425,6 +425,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>REPAION-N GEL 50 GM</t>
   </si>
   <si>
@@ -626,9 +635,6 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>182.4000</t>
   </si>
   <si>
@@ -668,7 +674,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 7:43 PM</t>
+    <t>Friday, 26 September, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2563,7 +2569,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,11 +2579,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2589,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2606,7 +2612,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2629,7 +2635,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2639,11 +2645,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2655,14 +2661,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2672,14 +2678,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,11 +2711,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2721,14 +2727,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2738,14 +2744,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2761,7 +2767,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,11 +2777,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2787,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,14 +2810,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2820,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,14 +2843,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2860,7 +2866,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2876,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2919,31 +2925,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,14 +2958,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,14 +2975,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2985,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3008,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>182</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3025,7 +3031,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,14 +3041,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3051,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,14 +3074,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3091,7 +3097,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,14 +3107,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>120</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,10 +3144,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>188</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,7 +3156,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3167,14 +3173,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3200,11 +3206,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3216,14 +3222,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3233,11 +3239,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3249,14 +3255,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3266,11 +3272,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3282,14 +3288,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3299,11 +3305,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3322,7 +3328,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3332,14 +3338,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3348,14 +3354,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3365,14 +3371,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,14 +3387,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3398,14 +3404,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,14 +3420,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3431,14 +3437,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3464,11 +3470,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3480,14 +3486,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,49 +3503,82 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>218</v>
       </c>
-      <c t="s" r="Q73" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4113</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>147</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>19</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>219</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>220</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>4137</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
         <v>221</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>222</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>223</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3883,10 +3922,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -509,16 +509,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>67.8300</t>
-  </si>
-  <si>
-    <t>1:1</t>
+    <t>84.6600</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -605,6 +599,12 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -674,7 +674,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 7:44 PM</t>
+    <t>Friday, 26 September, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2899,7 +2899,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2925,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2958,14 +2958,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,11 +2975,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2991,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3012,10 +3012,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3041,11 +3041,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>37</v>
@@ -3057,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,11 +3074,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>79</v>
@@ -3090,14 +3090,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3140,11 +3140,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>120</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3173,14 +3173,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3272,11 +3272,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1">
       <c r="P75" s="13">
-        <v>4137</v>
+        <v>4155.8299999999999</v>
       </c>
       <c r="Q75" s="13"/>
     </row>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -674,7 +674,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 7:45 PM</t>
+    <t>Friday, 26 September, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -341,6 +341,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
     <t>NEXIUM 40MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -674,7 +683,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 8:00 PM</t>
+    <t>Friday, 26 September, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2272,7 +2281,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2289,7 +2298,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2305,7 +2314,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2322,7 +2331,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2338,7 +2347,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,14 +2357,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2364,14 +2373,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,14 +2390,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2404,21 +2413,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2430,24 +2439,24 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2470,7 +2479,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2520,7 +2529,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2536,7 +2545,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2553,7 +2562,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2569,7 +2578,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2602,7 +2611,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,11 +2621,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,7 +2654,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2668,7 +2677,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,11 +2687,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,11 +2753,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2800,7 +2809,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,11 +2819,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,14 +2852,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,14 +2885,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2899,7 +2908,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2916,7 +2925,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2932,7 +2941,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>172</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2958,31 +2967,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,14 +3000,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,14 +3050,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>183</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3064,7 +3073,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,14 +3083,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3130,7 +3139,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>120</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3180,7 +3189,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>197</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,7 +3198,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,11 +3248,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3255,14 +3264,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,11 +3281,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3288,14 +3297,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,11 +3314,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3321,14 +3330,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,11 +3347,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3361,7 +3370,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3371,14 +3380,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,14 +3396,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3404,14 +3413,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,14 +3479,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3486,14 +3495,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3503,11 +3512,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3547,38 +3556,71 @@
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>4155.8299999999999</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>221</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>150</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>19</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>222</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>223</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>4410.8299999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>224</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>225</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>226</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3927,10 +3969,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -359,6 +359,18 @@
     <t>244.0000</t>
   </si>
   <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -539,6 +551,18 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -683,7 +707,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 8:01 PM</t>
+    <t>Friday, 26 September, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2347,7 +2371,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2357,11 +2381,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2373,14 +2397,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2397,7 +2421,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2406,14 +2430,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2430,7 +2454,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2439,28 +2463,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2472,28 +2496,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2505,14 +2529,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2522,11 +2546,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2538,7 +2562,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2555,14 +2579,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2571,14 +2595,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2588,14 +2612,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2604,14 +2628,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2621,11 +2645,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2637,14 +2661,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2654,11 +2678,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2687,11 +2711,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2743,7 +2767,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2753,14 +2777,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2769,14 +2793,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2786,11 +2810,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2802,14 +2826,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2819,14 +2843,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2835,14 +2859,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2852,11 +2876,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2868,14 +2892,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2885,14 +2909,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2901,14 +2925,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2925,7 +2949,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2934,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2951,14 +2975,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2967,14 +2991,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2991,7 +3015,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>175</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3000,31 +3024,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3046,18 +3070,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>183</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3073,7 +3097,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3083,14 +3107,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3099,14 +3123,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3116,14 +3140,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>79</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3132,14 +3156,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3153,7 +3177,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>37</v>
@@ -3165,14 +3189,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3182,14 +3206,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>123</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3198,14 +3222,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3215,14 +3239,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>200</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,7 +3255,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3248,14 +3272,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3264,14 +3288,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3281,14 +3305,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3297,7 +3321,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3314,11 +3338,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3330,14 +3354,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3347,11 +3371,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3363,7 +3387,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3380,11 +3404,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3396,14 +3420,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3413,14 +3437,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>212</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3429,14 +3453,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3446,11 +3470,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3462,14 +3486,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3479,14 +3503,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3495,14 +3519,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3512,11 +3536,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3528,14 +3552,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3545,14 +3569,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3561,14 +3585,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3578,49 +3602,115 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>4410.8299999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>224</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>225</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
         <v>226</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>19</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>227</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>229</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>154</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>19</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>230</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4603.8500000000004</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>232</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>233</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>234</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3974,10 +4064,20 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -362,13 +362,16 @@
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>1:6</t>
   </si>
   <si>
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
@@ -707,7 +710,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 8:04 PM</t>
+    <t>Friday, 26 September, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2388,7 +2391,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2397,7 +2400,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2414,11 +2417,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2430,14 +2433,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2447,14 +2450,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2463,14 +2466,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2480,11 +2483,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2496,14 +2499,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2517,7 +2520,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2529,7 +2532,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2546,11 +2549,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2562,7 +2565,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2579,11 +2582,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2595,7 +2598,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2612,11 +2615,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2628,7 +2631,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2645,11 +2648,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2661,7 +2664,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2678,11 +2681,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2694,7 +2697,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2715,7 +2718,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2727,7 +2730,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2744,11 +2747,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2760,14 +2763,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2777,11 +2780,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2793,7 +2796,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2810,7 +2813,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2826,7 +2829,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2859,7 +2862,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2876,11 +2879,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2892,14 +2895,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2925,14 +2928,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2942,14 +2945,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2958,14 +2961,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,11 +2978,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>59</v>
@@ -2991,14 +2994,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,11 +3011,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>95</v>
@@ -3024,14 +3027,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,14 +3044,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3057,14 +3060,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,11 +3077,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3090,14 +3093,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3107,11 +3110,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3123,14 +3126,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,14 +3143,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,7 +3159,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3173,11 +3176,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>37</v>
@@ -3189,14 +3192,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3206,11 +3209,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>79</v>
@@ -3222,14 +3225,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3239,11 +3242,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>37</v>
@@ -3255,7 +3258,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3272,14 +3275,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3288,7 +3291,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3305,14 +3308,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3321,7 +3324,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3338,11 +3341,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3354,14 +3357,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3387,7 +3390,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3404,11 +3407,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3420,7 +3423,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3453,7 +3456,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3470,11 +3473,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3486,14 +3489,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3503,14 +3506,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3519,7 +3522,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3552,14 +3555,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3585,14 +3588,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3602,11 +3605,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3618,14 +3621,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3635,11 +3638,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3651,14 +3654,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3668,11 +3671,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3680,13 +3683,13 @@
     </row>
     <row r="78" ht="24.75" customHeight="1">
       <c r="P78" s="13">
-        <v>4603.8500000000004</v>
+        <v>4555.8500000000004</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
     <row r="79" ht="16.5" customHeight="1">
       <c t="s" r="A79" s="14">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3694,13 +3697,13 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c t="s" r="G79" s="15">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="16"/>
       <c t="s" r="K79" s="17">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -710,7 +710,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 8:22 PM</t>
+    <t>Friday, 26 September, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -314,6 +314,15 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.00</t>
+  </si>
+  <si>
+    <t>277.0000</t>
+  </si>
+  <si>
     <t>MOODAPEX 50MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -710,7 +719,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 8:23 PM</t>
+    <t>Friday, 26 September, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2209,13 +2218,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2242,7 +2251,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2275,7 +2284,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2285,7 +2294,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2308,7 +2317,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2318,7 +2327,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2341,7 +2350,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2358,7 +2367,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2374,7 +2383,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2384,14 +2393,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2400,14 +2409,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2417,14 +2426,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2440,7 +2449,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2483,14 +2492,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2506,21 +2515,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2532,24 +2541,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2572,7 +2581,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2622,7 +2631,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2638,7 +2647,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2655,7 +2664,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2671,7 +2680,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2704,7 +2713,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2714,11 +2723,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2747,7 +2756,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2770,7 +2779,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2780,11 +2789,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2829,14 +2838,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2846,11 +2855,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2862,14 +2871,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2879,14 +2888,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2902,7 +2911,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2912,11 +2921,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>172</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3001,7 +3010,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3018,7 +3027,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3034,7 +3043,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3044,14 +3053,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>180</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3093,31 +3102,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3126,14 +3135,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3143,14 +3152,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3176,14 +3185,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>195</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3199,7 +3208,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3209,14 +3218,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3265,7 +3274,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3275,14 +3284,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>128</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3315,7 +3324,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>209</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3324,7 +3333,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3341,14 +3350,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3357,14 +3366,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3374,11 +3383,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3407,11 +3416,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3423,14 +3432,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3440,11 +3449,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3473,11 +3482,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3496,7 +3505,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3506,14 +3515,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3539,14 +3548,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3572,14 +3581,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3605,14 +3614,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3621,14 +3630,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3638,11 +3647,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3654,14 +3663,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3682,38 +3691,71 @@
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4555.8500000000004</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>233</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>158</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>19</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>234</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>235</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4832.8500000000004</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>236</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>237</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>238</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4077,10 +4119,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -2218,7 +2218,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -269,6 +269,15 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
   </si>
   <si>
@@ -530,6 +539,15 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -719,7 +737,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 8:49 PM</t>
+    <t>Friday, 26 September, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2053,7 +2071,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2063,11 +2081,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2079,14 +2097,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2096,14 +2114,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2119,13 +2137,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2136,7 +2154,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2152,24 +2170,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2178,14 +2196,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2218,13 +2236,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2235,7 +2253,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2251,13 +2269,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2284,7 +2302,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2317,7 +2335,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2327,7 +2345,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2350,7 +2368,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2360,7 +2378,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2383,7 +2401,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2400,7 +2418,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2416,7 +2434,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2426,14 +2444,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2442,14 +2460,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2459,14 +2477,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2482,7 +2500,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2492,14 +2510,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2508,14 +2526,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2525,14 +2543,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2548,21 +2566,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2574,24 +2592,24 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2614,7 +2632,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2664,7 +2682,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2680,7 +2698,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2697,7 +2715,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2713,7 +2731,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2746,7 +2764,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2756,11 +2774,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2772,14 +2790,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2789,7 +2807,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2812,7 +2830,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,11 +2840,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2838,14 +2856,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,14 +2873,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2871,14 +2889,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2888,11 +2906,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2904,14 +2922,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2921,14 +2939,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2944,7 +2962,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2954,11 +2972,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2970,14 +2988,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2987,14 +3005,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3020,14 +3038,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3043,7 +3061,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3060,7 +3078,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3076,7 +3094,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,14 +3104,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>183</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3102,14 +3120,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,14 +3137,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3135,31 +3153,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3168,31 +3186,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>195</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3201,14 +3219,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3236,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3252,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,14 +3269,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>79</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3267,14 +3285,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3284,11 +3302,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>37</v>
@@ -3300,14 +3318,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3324,7 +3342,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>131</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3340,7 +3358,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3350,14 +3368,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>212</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3366,7 +3384,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3383,14 +3401,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3406,7 +3424,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3416,14 +3434,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3432,7 +3450,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3449,11 +3467,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3465,14 +3483,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3482,11 +3500,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3498,7 +3516,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3515,11 +3533,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3531,14 +3549,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>222</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3548,14 +3566,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3564,14 +3582,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3581,11 +3599,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3597,14 +3615,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3614,14 +3632,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3630,14 +3648,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3647,11 +3665,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3663,14 +3681,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3680,14 +3698,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3703,7 +3721,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3713,49 +3731,115 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>235</v>
       </c>
-      <c t="s" r="Q78" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4832.8500000000004</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
         <v>236</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>19</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>237</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>238</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>239</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>161</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>19</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>240</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>5280.8500000000004</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>242</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>243</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>244</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4124,10 +4208,20 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
   </si>
   <si>
@@ -737,7 +746,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 8:50 PM</t>
+    <t>Friday, 26 September, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1972,7 +1981,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1982,14 +1991,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1998,14 +2007,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2015,11 +2024,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2031,31 +2040,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2071,13 +2080,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2088,7 +2097,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2104,7 +2113,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2114,11 +2123,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2147,14 +2156,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2170,13 +2179,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2187,7 +2196,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2203,24 +2212,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2229,14 +2238,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2269,13 +2278,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2286,7 +2295,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2302,13 +2311,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2335,7 +2344,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2368,7 +2377,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2378,7 +2387,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2401,7 +2410,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2411,7 +2420,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2434,7 +2443,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2451,7 +2460,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2467,7 +2476,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2533,7 +2542,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2543,14 +2552,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2576,14 +2585,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2599,21 +2608,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2625,24 +2634,24 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2665,7 +2674,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2715,7 +2724,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2731,7 +2740,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2748,7 +2757,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2764,7 +2773,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2797,7 +2806,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2807,11 +2816,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2840,7 +2849,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2863,7 +2872,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2873,11 +2882,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2939,11 +2948,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2995,7 +3004,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3005,11 +3014,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3021,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3038,14 +3047,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3094,7 +3103,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3111,7 +3120,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3127,7 +3136,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3144,7 +3153,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3160,7 +3169,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>189</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3203,14 +3212,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3219,31 +3228,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3269,14 +3278,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3302,14 +3311,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>204</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3325,7 +3334,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3368,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3391,7 +3400,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3401,14 +3410,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,7 +3450,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>218</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3450,7 +3459,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3500,11 +3509,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3533,11 +3542,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3566,11 +3575,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3622,7 +3631,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3698,14 +3707,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3731,14 +3740,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3764,11 +3773,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3808,38 +3817,71 @@
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>5280.8500000000004</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>242</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>164</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>19</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
         <v>243</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>244</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>5316.3500000000004</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>245</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>246</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>247</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4218,10 +4260,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -704,13 +704,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>41:0</t>
-  </si>
-  <si>
-    <t>182.4000</t>
-  </si>
-  <si>
-    <t>7:1</t>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>278.4000</t>
+  </si>
+  <si>
+    <t>11:1</t>
   </si>
   <si>
     <t>مزيل عرق فوج FOGG MASTER</t>
@@ -746,7 +746,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 8:52 PM</t>
+    <t>Friday, 26 September, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="82" ht="25.5" customHeight="1">
       <c r="P82" s="13">
-        <v>5316.3500000000004</v>
+        <v>5412.3500000000004</v>
       </c>
       <c r="Q82" s="13"/>
     </row>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -458,6 +458,24 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PARAMOL 1000 MG 20 TABS.</t>
   </si>
   <si>
@@ -581,9 +599,6 @@
     <t>2:4</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>-33.6600</t>
   </si>
   <si>
@@ -746,7 +761,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 8:53 PM</t>
+    <t>Friday, 26 September, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2740,7 +2755,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2757,7 +2772,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2773,7 +2788,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2790,7 +2805,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2823,7 +2838,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2849,11 +2864,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2865,7 +2880,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2882,11 +2897,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2898,14 +2913,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2915,11 +2930,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2931,14 +2946,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,14 +2963,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +2996,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2997,14 +3012,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3029,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,14 +3045,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3047,14 +3062,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3063,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3087,7 +3102,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,14 +3111,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,11 +3128,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3129,14 +3144,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,14 +3161,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>184</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3169,7 +3184,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3186,7 +3201,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3202,7 +3217,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,14 +3227,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>192</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3228,14 +3243,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,14 +3260,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3261,31 +3276,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3294,31 +3309,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>204</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3327,14 +3342,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3359,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3377,14 +3392,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>82</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,14 +3408,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,11 +3425,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>37</v>
@@ -3426,14 +3441,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3458,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,14 +3474,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3480,10 +3495,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>221</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3492,7 +3507,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3509,14 +3524,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3525,14 +3540,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,14 +3557,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,7 +3573,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3575,11 +3590,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3591,14 +3606,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3608,11 +3623,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3624,7 +3639,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3641,11 +3656,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3657,14 +3672,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3674,14 +3689,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,14 +3705,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3707,11 +3722,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3730,7 +3745,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3740,14 +3755,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>37</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3756,14 +3771,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3773,11 +3788,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3789,14 +3804,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3806,14 +3821,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,14 +3837,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3839,49 +3854,115 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>243</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
         <v>244</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>5412.3500000000004</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>19</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>245</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>246</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>247</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>170</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>19</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>248</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>5519.3500000000004</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>250</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>251</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>252</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4265,10 +4346,20 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -761,7 +761,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 9:03 PM</t>
+    <t>Friday, 26 September, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -197,6 +197,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -587,10 +599,16 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>4:3</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>84.6600</t>
+    <t>101.4900</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -686,18 +704,12 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -761,7 +773,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 9:04 PM</t>
+    <t>Friday, 26 September, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1864,7 +1876,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1874,11 +1886,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1890,14 +1902,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1923,14 +1935,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1963,7 +1975,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1973,11 +1985,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2006,14 +2018,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2022,14 +2034,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2046,7 +2058,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2062,7 +2074,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2072,11 +2084,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2088,31 +2100,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2121,31 +2133,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2171,11 +2183,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2204,14 +2216,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2220,31 +2232,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2253,20 +2265,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2277,7 +2289,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2293,7 +2305,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2303,11 +2315,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2319,31 +2331,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2352,28 +2364,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2402,11 +2414,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2435,11 +2447,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2468,11 +2480,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2484,14 +2496,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2541,7 +2553,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2574,7 +2586,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2607,7 +2619,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2640,7 +2652,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2649,28 +2661,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2682,28 +2694,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2732,11 +2744,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2765,11 +2777,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2831,11 +2843,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2864,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2897,11 +2909,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2930,11 +2942,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2946,14 +2958,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2963,11 +2975,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3019,7 +3031,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,11 +3074,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -3078,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,14 +3107,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,11 +3140,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3161,14 +3173,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3201,7 +3213,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3243,14 +3255,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3260,14 +3272,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>101</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3309,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3326,14 +3338,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3342,31 +3354,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,14 +3404,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3425,14 +3437,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>37</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,14 +3453,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3458,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3474,14 +3486,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3491,14 +3503,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,14 +3536,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3540,7 +3552,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>226</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3573,7 +3585,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3656,11 +3668,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3689,11 +3701,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3722,11 +3734,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3755,14 +3767,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>238</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3778,7 +3790,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3788,14 +3800,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3821,14 +3833,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3854,14 +3866,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3887,11 +3899,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3910,7 +3922,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3920,49 +3932,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>5519.3500000000004</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>250</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>251</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>174</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>19</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
         <v>252</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>5553.0600000000004</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>254</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>255</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>256</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4356,10 +4401,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -773,7 +773,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 9:06 PM</t>
+    <t>Friday, 26 September, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -236,6 +236,21 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -269,9 +284,6 @@
     <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -509,9 +521,6 @@
     <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -773,7 +782,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 9:08 PM</t>
+    <t>Friday, 26 September, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1992,7 +2001,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2001,14 +2010,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2018,11 +2027,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2034,14 +2043,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2051,14 +2060,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2067,14 +2076,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2084,14 +2093,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2100,14 +2109,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2117,11 +2126,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2133,31 +2142,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2166,31 +2175,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2199,14 +2208,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2216,11 +2225,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2232,14 +2241,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2249,14 +2258,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2265,31 +2274,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2298,20 +2307,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2322,7 +2331,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2338,7 +2347,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2348,11 +2357,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2364,31 +2373,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2397,28 +2406,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2430,14 +2439,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2447,11 +2456,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2480,11 +2489,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2496,14 +2505,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2513,11 +2522,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2529,14 +2538,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2546,14 +2555,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2562,14 +2571,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2586,7 +2595,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2619,7 +2628,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2652,7 +2661,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2685,7 +2694,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2694,28 +2703,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2727,28 +2736,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,11 +2786,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,11 +2819,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2843,14 +2852,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,11 +2951,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,11 +2984,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2991,14 +3000,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3008,7 +3017,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3031,7 +3040,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3041,11 +3050,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3057,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,14 +3083,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,11 +3116,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3123,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3163,7 +3172,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3173,11 +3182,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,14 +3248,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>191</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3262,7 +3271,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3279,7 +3288,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3295,7 +3304,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>199</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>202</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>203</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,14 +3380,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,31 +3396,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>215</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3479,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>218</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3493,7 +3502,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3512,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3559,7 +3568,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3578,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>141</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3606,10 +3615,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>231</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3635,14 +3644,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,14 +3660,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,14 +3677,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,11 +3710,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3717,14 +3726,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,11 +3743,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,11 +3776,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3790,7 +3799,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,14 +3809,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,14 +3842,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,14 +3858,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3932,11 +3941,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3976,38 +3985,71 @@
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>5553.0600000000004</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>254</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>177</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>19</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>255</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>256</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>5560.9799999999996</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>257</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>258</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>259</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4406,10 +4448,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -62,294 +62,315 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CAPRY TOP SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>MENTOVAL DROPS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>13.2600</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CAPRY TOP SOAP 80 GM</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLEAREST 14 CAPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>5:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>DIPROSALIC LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
-  </si>
-  <si>
-    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>LAMICTAL 100MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>226.00</t>
-  </si>
-  <si>
-    <t>226.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>0:12</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>MENTOVAL DROPS</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -413,16 +434,13 @@
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
-    <t>1:6</t>
+    <t>0:6</t>
   </si>
   <si>
     <t>96.00</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>1:3</t>
   </si>
   <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
@@ -617,9 +635,6 @@
     <t>101.4900</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -635,9 +650,6 @@
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>294.00</t>
   </si>
   <si>
@@ -680,9 +692,6 @@
     <t>حفاضات كبار سن</t>
   </si>
   <si>
-    <t>0:6</t>
-  </si>
-  <si>
     <t>230.00</t>
   </si>
   <si>
@@ -719,6 +728,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -782,7 +794,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 9:10 PM</t>
+    <t>Friday, 26 September, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1462,18 +1474,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1482,31 +1494,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1515,14 +1527,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1532,14 +1544,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1548,14 +1560,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1565,11 +1577,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1581,14 +1593,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1598,14 +1610,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1621,7 +1633,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1631,14 +1643,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1647,31 +1659,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1680,31 +1692,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1713,14 +1725,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1730,14 +1742,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1746,14 +1758,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1763,11 +1775,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1779,14 +1791,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1796,11 +1808,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1812,14 +1824,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1829,11 +1841,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1845,14 +1857,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1869,7 +1881,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1902,7 +1914,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1918,7 +1930,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1928,14 +1940,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1944,7 +1956,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1961,14 +1973,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1994,14 +2006,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2010,14 +2022,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2027,11 +2039,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,14 +2072,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2100,7 +2112,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2116,7 +2128,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2149,7 +2161,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,14 +2171,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2175,31 +2187,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2220,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,11 +2237,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2248,24 +2260,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2274,14 +2286,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2303,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2307,28 +2319,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2347,7 +2359,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2357,14 +2369,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2373,31 +2385,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2406,20 +2418,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2430,7 +2442,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2446,7 +2458,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,14 +2468,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,28 +2484,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2505,14 +2517,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,11 +2534,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2538,14 +2550,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,11 +2567,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2588,14 +2600,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2628,7 +2640,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2670,14 +2682,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2687,14 +2699,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,11 +2732,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2736,31 +2748,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,11 +2798,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2802,24 +2814,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2842,7 +2854,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2875,7 +2887,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2892,7 +2904,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2908,7 +2920,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2925,7 +2937,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2941,7 +2953,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2958,7 +2970,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3000,7 +3012,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3017,11 +3029,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3033,7 +3045,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3050,11 +3062,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3066,14 +3078,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,11 +3095,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3099,14 +3111,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3194,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,14 +3210,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,14 +3227,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,14 +3243,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3255,7 +3267,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,14 +3276,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3281,11 +3293,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3297,14 +3309,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,14 +3326,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>197</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3337,7 +3349,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,14 +3359,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>206</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3396,14 +3408,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,14 +3425,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,31 +3441,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,31 +3474,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>218</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3495,31 +3507,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,31 +3540,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>79</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,31 +3573,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,31 +3606,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,31 +3639,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,7 +3672,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3673,18 +3685,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,31 +3705,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,7 +3738,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3739,18 +3751,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,28 +3771,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3792,7 +3804,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3805,15 +3817,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3832,24 +3844,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,28 +3870,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3891,31 +3903,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>37</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,28 +3936,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3957,31 +3969,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,66 +4002,132 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>254</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>255</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>24</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>256</v>
       </c>
-      <c t="s" r="Q85" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>5560.9799999999996</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>257</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>258</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>183</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>24</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
         <v>259</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>5694.3199999999997</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>261</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>262</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>263</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4453,10 +4531,20 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -698,15 +698,24 @@
     <t>25.3000</t>
   </si>
   <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>حلمة ببرونه</t>
   </si>
   <si>
     <t>15:0</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -794,7 +803,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 9:19 PM</t>
+    <t>Friday, 26 September, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3660,10 +3669,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3672,14 +3681,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3689,14 +3698,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>151</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3726,10 +3735,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>237</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3755,14 +3764,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3788,14 +3797,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3804,14 +3813,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3821,11 +3830,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3854,11 +3863,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3870,14 +3879,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3887,11 +3896,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3910,7 +3919,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3920,14 +3929,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3953,14 +3962,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3969,14 +3978,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3986,14 +3995,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4035,14 +4044,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4052,11 +4061,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4096,38 +4105,71 @@
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>5694.3199999999997</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>261</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>183</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>24</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>262</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>263</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5704.3199999999997</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>264</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>265</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>266</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4541,10 +4583,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -320,6 +329,24 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>LAMICTAL 100MG 30 TAB.</t>
   </si>
   <si>
@@ -440,9 +467,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -707,9 +731,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>حلمة ببرونه</t>
   </si>
   <si>
@@ -788,12 +809,6 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
@@ -803,7 +818,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 9:20 PM</t>
+    <t>Friday, 26 September, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1774,7 +1789,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1784,14 +1799,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1807,7 +1822,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1817,11 +1832,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1873,7 +1888,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1906,7 +1921,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1916,14 +1931,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1932,14 +1947,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1949,11 +1964,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1965,14 +1980,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2005,7 +2020,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2019,7 +2034,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2031,14 +2046,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2048,14 +2063,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2071,7 +2086,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2081,14 +2096,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2097,14 +2112,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2114,14 +2129,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2130,14 +2145,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2170,7 +2185,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2187,7 +2202,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2203,7 +2218,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2220,7 +2235,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2236,7 +2251,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2246,11 +2261,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2262,31 +2277,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2302,13 +2317,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2319,7 +2334,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2335,7 +2350,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2345,14 +2360,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2361,14 +2376,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2378,14 +2393,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2394,7 +2409,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2407,15 +2422,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2427,14 +2442,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2444,14 +2459,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2460,14 +2475,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2477,11 +2492,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2493,7 +2508,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2510,11 +2525,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2543,14 +2558,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2559,14 +2574,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2583,7 +2598,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2599,17 +2614,17 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2632,7 +2647,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2665,7 +2680,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2682,7 +2697,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2741,11 +2756,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>151</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2790,14 +2805,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2807,14 +2822,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2823,28 +2838,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2873,14 +2888,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>159</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2896,7 +2911,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2929,21 +2944,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2955,14 +2970,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2988,7 +3003,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3021,7 +3036,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3038,11 +3053,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3094,7 +3109,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3137,11 +3152,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3170,11 +3185,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3226,7 +3241,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3236,14 +3251,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3252,14 +3267,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3269,11 +3284,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3285,14 +3300,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3302,14 +3317,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3318,14 +3333,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3335,14 +3350,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>197</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3368,11 +3383,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3384,14 +3399,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3401,14 +3416,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3417,14 +3432,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>143</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3450,14 +3465,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3500,14 +3515,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3516,31 +3531,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3549,31 +3564,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3582,31 +3597,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3615,14 +3630,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3632,14 +3647,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3648,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3665,14 +3680,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3698,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>42</v>
@@ -3714,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3731,14 +3746,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>151</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3747,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3768,10 +3783,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3797,14 +3812,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3813,14 +3828,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3830,14 +3845,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3846,7 +3861,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3863,14 +3878,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3912,14 +3927,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3929,11 +3944,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3945,14 +3960,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3962,14 +3977,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>252</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3978,7 +3993,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3995,11 +4010,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4011,14 +4026,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4028,14 +4043,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4077,14 +4092,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4094,11 +4109,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4117,7 +4132,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,49 +4142,148 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>262</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
         <v>263</v>
       </c>
-      <c t="s" r="Q88" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>5704.3199999999997</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>24</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>254</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>264</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>265</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>24</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>110</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>266</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>191</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>24</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>267</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>5799.9099999999999</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>269</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>270</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>271</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4588,10 +4702,25 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -206,267 +206,273 @@
     <t>144.00</t>
   </si>
   <si>
+    <t>288.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>MENTOVAL DROPS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.00</t>
+  </si>
+  <si>
+    <t>277.0000</t>
+  </si>
+  <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEXIUM 40MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>244.0000</t>
+  </si>
+  <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
     <t>144.0000</t>
   </si>
   <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>5:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>DIPROSALIC LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
-  </si>
-  <si>
-    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LAMICTAL 100MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>226.00</t>
-  </si>
-  <si>
-    <t>226.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>0:12</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>MENTOVAL DROPS</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>277.00</t>
-  </si>
-  <si>
-    <t>277.0000</t>
-  </si>
-  <si>
-    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEXIUM 40MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>488.00</t>
-  </si>
-  <si>
-    <t>244.0000</t>
-  </si>
-  <si>
-    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -560,6 +566,12 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
   </si>
   <si>
@@ -650,13 +662,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>4:2</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>101.4900</t>
+    <t>118.3200</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -779,6 +791,9 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>كريم شعر نيو هير صغير</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -818,7 +833,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 9:43 PM</t>
+    <t>Friday, 26 September, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1888,7 +1903,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1905,7 +1920,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2284,7 +2299,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2294,11 +2309,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2310,31 +2325,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2343,28 +2358,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2393,14 +2408,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2426,11 +2441,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2459,11 +2474,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2508,31 +2523,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2541,31 +2556,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2574,14 +2589,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2591,11 +2606,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2607,31 +2622,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2640,28 +2655,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2690,11 +2705,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2706,14 +2721,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2723,11 +2738,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2739,14 +2754,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2756,11 +2771,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2772,14 +2787,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2789,14 +2804,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2805,14 +2820,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2822,14 +2837,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,14 +2853,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2855,14 +2870,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2871,14 +2886,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2888,14 +2903,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2904,14 +2919,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2921,14 +2936,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2937,24 +2952,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2977,21 +2992,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3003,14 +3018,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,11 +3035,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3036,14 +3051,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3053,11 +3068,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3069,14 +3084,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3086,14 +3101,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3102,14 +3117,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3119,11 +3134,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3152,14 +3167,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3168,14 +3183,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3185,7 +3200,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3208,7 +3223,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3218,14 +3233,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3251,11 +3266,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3267,14 +3282,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,11 +3299,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3300,14 +3315,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3333,14 +3348,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3350,14 +3365,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3366,14 +3381,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3383,14 +3398,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3406,7 +3421,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3416,14 +3431,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3432,14 +3447,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3465,14 +3480,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,11 +3497,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,14 +3530,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,14 +3563,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3564,14 +3579,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,14 +3596,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>219</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3614,14 +3629,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3630,31 +3645,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3663,31 +3678,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>230</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3696,14 +3711,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,14 +3728,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3729,14 +3744,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,14 +3761,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3762,14 +3777,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3779,14 +3794,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>55</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3795,14 +3810,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3816,10 +3831,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3849,10 +3864,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3861,14 +3876,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3878,14 +3893,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>247</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3894,7 +3909,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3911,14 +3926,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3927,14 +3942,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3944,14 +3959,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3960,7 +3975,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3977,14 +3992,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3993,14 +4008,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4010,11 +4025,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4026,7 +4041,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4043,11 +4058,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4066,7 +4081,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4076,14 +4091,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>259</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4092,14 +4107,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4109,11 +4124,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4142,14 +4157,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4158,14 +4173,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4175,14 +4190,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4191,14 +4206,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4208,11 +4223,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4231,7 +4246,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4241,49 +4256,148 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>267</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
         <v>268</v>
       </c>
-      <c t="s" r="Q91" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>5799.9099999999999</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>24</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>258</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>269</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
         <v>270</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>24</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>111</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>271</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>195</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>24</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>272</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>6016.6000000000004</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>274</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>275</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>276</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4717,10 +4831,25 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 10:30 PM</t>
+    <t>Friday, 26 September, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -452,6 +452,18 @@
     <t>255.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>NEXIUM 40MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -692,6 +704,12 @@
     <t>97.0200</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -833,7 +851,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 10:31 PM</t>
+    <t>Friday, 26 September, 2025 10:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2827,7 +2845,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2837,11 +2855,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2877,7 +2895,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2893,7 +2911,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2943,7 +2961,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2976,7 +2994,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2985,28 +3003,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3018,28 +3036,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3068,11 +3086,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3101,11 +3119,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3134,14 +3152,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3150,14 +3168,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3167,11 +3185,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3233,14 +3251,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3249,14 +3267,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3282,14 +3300,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3299,11 +3317,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3332,11 +3350,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3388,7 +3406,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3398,14 +3416,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3431,11 +3449,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3480,14 +3498,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3497,11 +3515,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3570,7 +3588,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3636,7 +3654,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3662,14 +3680,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>223</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3685,7 +3703,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3695,14 +3713,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3711,20 +3729,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3735,7 +3753,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3761,14 +3779,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>234</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3810,14 +3828,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3827,14 +3845,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3850,7 +3868,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3860,14 +3878,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3883,7 +3901,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3893,14 +3911,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3909,14 +3927,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>251</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3992,14 +4010,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4008,14 +4026,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4025,14 +4043,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4041,7 +4059,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4058,14 +4076,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4074,14 +4092,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4091,11 +4109,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4107,7 +4125,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4124,11 +4142,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4157,11 +4175,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4173,14 +4191,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4190,14 +4208,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>87</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4206,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4223,11 +4241,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4239,14 +4257,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>123</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4289,11 +4307,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4322,14 +4340,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4338,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4355,49 +4373,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>6016.6000000000004</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>274</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>275</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>276</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>24</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>111</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>277</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>199</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>24</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>278</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>6068.3800000000001</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>280</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>281</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>282</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4846,10 +4930,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -317,6 +326,12 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -383,6 +398,9 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
@@ -431,195 +449,216 @@
     <t>23.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NEXIUM 40MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>244.0000</t>
+  </si>
+  <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>257.6000</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANAX LIFE 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PENDULINE KIDS HAIR CREAM 150ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NEXIUM 40MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>488.00</t>
-  </si>
-  <si>
-    <t>244.0000</t>
-  </si>
-  <si>
-    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>257.6000</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANAX LIFE 20 CAPSULES</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 1000 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PENDULINE KIDS HAIR CREAM 150ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>REPAION-N GEL 50 GM</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>SILVIRBURN CREAM 250 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -704,6 +743,15 @@
     <t>97.0200</t>
   </si>
   <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -845,13 +893,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>Friday, 26 September, 2025 10:37 PM</t>
+    <t>Friday, 26 September, 2025 10:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1558,24 +1600,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1584,31 +1626,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1624,7 +1666,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1634,14 +1676,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1650,14 +1692,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1690,7 +1732,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1700,14 +1742,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1716,14 +1758,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1733,14 +1775,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1749,31 +1791,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1782,31 +1824,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1815,14 +1857,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1832,7 +1874,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1855,7 +1897,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1865,14 +1907,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1888,7 +1930,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1898,11 +1940,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1914,14 +1956,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1938,7 +1980,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1954,7 +1996,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1971,7 +2013,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1987,7 +2029,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1997,14 +2039,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2013,14 +2055,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2030,11 +2072,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2046,14 +2088,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2086,7 +2128,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2100,7 +2142,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2112,14 +2154,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2129,14 +2171,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2152,7 +2194,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2162,14 +2204,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2178,14 +2220,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2195,14 +2237,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2211,14 +2253,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2251,7 +2293,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2268,7 +2310,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2284,7 +2326,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2301,7 +2343,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2317,7 +2359,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2331,7 +2373,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2343,14 +2385,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2360,11 +2402,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2376,31 +2418,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2409,14 +2451,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2426,14 +2468,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2449,24 +2491,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2475,14 +2517,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2492,14 +2534,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2508,14 +2550,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2525,11 +2567,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2548,7 +2590,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2565,7 +2607,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2581,21 +2623,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2607,14 +2649,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2624,11 +2666,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2640,31 +2682,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2673,28 +2715,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2706,14 +2748,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2723,14 +2765,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2739,14 +2781,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2756,14 +2798,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2772,28 +2814,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2805,14 +2847,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2822,11 +2864,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2838,14 +2880,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2855,14 +2897,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2871,14 +2913,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2888,14 +2930,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2904,14 +2946,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2921,14 +2963,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2937,14 +2979,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2954,14 +2996,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2970,14 +3012,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,14 +3029,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>165</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3003,14 +3045,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3020,14 +3062,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3036,28 +3078,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3069,14 +3111,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3086,14 +3128,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3102,14 +3144,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,11 +3161,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3135,14 +3177,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3152,11 +3194,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3168,31 +3210,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3201,14 +3243,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3218,14 +3260,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3234,14 +3276,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3251,11 +3293,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3267,14 +3309,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,14 +3326,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3300,14 +3342,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3317,14 +3359,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3333,14 +3375,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,14 +3392,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3366,14 +3408,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,11 +3425,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3399,14 +3441,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3416,14 +3458,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3432,14 +3474,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3449,14 +3491,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3465,14 +3507,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3482,14 +3524,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3498,14 +3540,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3515,11 +3557,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3531,14 +3573,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,11 +3590,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3564,14 +3606,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,14 +3623,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3597,14 +3639,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,11 +3656,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3630,14 +3672,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,14 +3689,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3663,14 +3705,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,14 +3722,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3696,14 +3738,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,14 +3755,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3771,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3788,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,31 +3804,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3795,28 +3837,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3828,31 +3870,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>240</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3861,31 +3903,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3894,31 +3936,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3927,31 +3969,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,31 +4002,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>251</v>
+        <v>168</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3993,31 +4035,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>253</v>
+        <v>94</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>254</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4026,31 +4068,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,31 +4101,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4092,31 +4134,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4125,31 +4167,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4158,28 +4200,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4191,31 +4233,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,31 +4266,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,31 +4299,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>87</v>
+        <v>272</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4290,31 +4332,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4323,31 +4365,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4356,28 +4398,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4389,28 +4431,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4422,66 +4464,297 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>6068.3800000000001</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>282</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>26</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>27</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>173</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>283</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>284</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>27</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>90</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>287</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>45</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>27</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>36</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>288</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>168</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>27</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>94</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>289</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>290</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>27</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
         <v>280</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>281</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>282</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>291</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>292</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>27</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>116</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>293</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>211</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>27</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>245</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>6596.3800000000001</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>294</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>295</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>296</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4940,10 +5213,45 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -275,6 +287,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>ESSENTIALE 300MG 30CAP</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>31.3500</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -374,6 +395,12 @@
     <t>226.0000</t>
   </si>
   <si>
+    <t>LASIX 20MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
   </si>
   <si>
@@ -446,9 +473,6 @@
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
@@ -632,6 +656,18 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
@@ -641,6 +677,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -656,9 +698,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -689,9 +728,6 @@
     <t>196.0000</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>TIRATAM 500MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -893,7 +929,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 10:48 PM</t>
+    <t>Friday, 26 September, 2025 11:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1837,7 +1873,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1870,7 +1906,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1881,7 +1917,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1907,11 +1943,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1923,14 +1959,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1940,14 +1976,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1956,14 +1992,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1996,7 +2032,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2006,14 +2042,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2022,14 +2058,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2039,14 +2075,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2055,14 +2091,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2079,7 +2115,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2128,7 +2164,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2138,11 +2174,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2154,14 +2190,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2171,11 +2207,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2187,14 +2223,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2204,14 +2240,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2220,14 +2256,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2244,7 +2280,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2260,24 +2296,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2286,14 +2322,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2310,7 +2346,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2326,7 +2362,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2336,14 +2372,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2352,14 +2388,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2369,11 +2405,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2385,14 +2421,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2402,14 +2438,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2418,14 +2454,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2435,11 +2471,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2451,14 +2487,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2468,11 +2504,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2484,31 +2520,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2517,14 +2553,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2534,14 +2570,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2550,31 +2586,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2583,14 +2619,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2600,14 +2636,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2616,14 +2652,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2633,11 +2669,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2649,14 +2685,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2666,14 +2702,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2682,31 +2718,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2715,14 +2751,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2732,11 +2768,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2748,14 +2784,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2765,11 +2801,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2781,20 +2817,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2805,7 +2841,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2821,21 +2857,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2847,14 +2883,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2864,14 +2900,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2880,14 +2916,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2904,7 +2940,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2920,17 +2956,17 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2953,7 +2989,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2986,7 +3022,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2996,14 +3032,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3012,14 +3048,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3029,14 +3065,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3045,14 +3081,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3062,14 +3098,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3078,14 +3114,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3095,14 +3131,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3111,14 +3147,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3128,14 +3164,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>171</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3144,14 +3180,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3161,14 +3197,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3177,14 +3213,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3194,11 +3230,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3210,31 +3246,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3250,7 +3286,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3283,7 +3319,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3293,7 +3329,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3316,21 +3352,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3342,14 +3378,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3359,14 +3395,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3375,7 +3411,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3392,14 +3428,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3448,7 +3484,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3458,14 +3494,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3474,7 +3510,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3491,14 +3527,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3507,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3524,11 +3560,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3540,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3557,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3573,14 +3609,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3590,11 +3626,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3606,7 +3642,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3623,11 +3659,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3646,7 +3682,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3656,11 +3692,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3672,14 +3708,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3689,14 +3725,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3705,14 +3741,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3722,14 +3758,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3738,7 +3774,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3755,11 +3791,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3771,14 +3807,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3788,14 +3824,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3804,14 +3840,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3821,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3837,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3854,14 +3890,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3870,14 +3906,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3887,14 +3923,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3903,14 +3939,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3920,14 +3956,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3936,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3953,14 +3989,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3969,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3986,14 +4022,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4002,28 +4038,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4035,31 +4071,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4068,31 +4104,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,31 +4137,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4134,31 +4170,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4167,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4184,14 +4220,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4200,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4217,11 +4253,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4233,14 +4269,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4250,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4266,14 +4302,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4283,14 +4319,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>171</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4299,7 +4335,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4316,14 +4352,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>273</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4332,14 +4368,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4349,14 +4385,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4365,14 +4401,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4382,11 +4418,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4398,14 +4434,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4415,14 +4451,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4431,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4448,14 +4484,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>95</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4464,7 +4500,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4481,14 +4517,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4497,14 +4533,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4514,14 +4550,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4530,14 +4566,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4547,14 +4583,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>286</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4563,14 +4599,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4580,11 +4616,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4596,14 +4632,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4613,14 +4649,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4629,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4646,11 +4682,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4662,14 +4698,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4679,11 +4715,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4695,14 +4731,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4712,49 +4748,214 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>6596.3800000000001</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>294</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>295</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>296</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>299</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>45</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>27</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>36</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>300</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>176</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>27</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>101</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>301</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>302</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>27</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>292</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>303</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>304</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>27</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>123</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>305</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>225</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>27</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>257</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6747.75</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>306</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>307</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>308</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5248,10 +5449,35 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>BRINGO TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>CAPRY TOP SOAP 80 GM</t>
   </si>
   <si>
@@ -146,9 +158,6 @@
     <t>100.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -576,12 +585,6 @@
   </si>
   <si>
     <t>PANAX LIFE 20 CAPSULES</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
   </si>
   <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
@@ -1818,7 +1821,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1827,14 +1830,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1844,14 +1847,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1860,14 +1863,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1877,14 +1880,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1893,28 +1896,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1926,31 +1929,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1959,14 +1962,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1976,7 +1979,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1999,7 +2002,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2009,14 +2012,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2032,7 +2035,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2042,11 +2045,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2058,14 +2061,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2082,7 +2085,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2098,7 +2101,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2115,7 +2118,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2131,7 +2134,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2141,14 +2144,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2157,14 +2160,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2174,11 +2177,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2190,14 +2193,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2230,7 +2233,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2244,7 +2247,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2256,14 +2259,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2273,14 +2276,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2302,7 +2305,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2313,7 +2316,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2329,24 +2332,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2355,14 +2358,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2375,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,14 +2391,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2428,7 +2431,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2445,7 +2448,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2461,7 +2464,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2478,7 +2481,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2494,7 +2497,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2504,11 +2507,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2520,14 +2523,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2537,11 +2540,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2553,14 +2556,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2570,11 +2573,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2586,31 +2589,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2619,24 +2622,24 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2659,7 +2662,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2676,7 +2679,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2692,7 +2695,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2725,7 +2728,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,14 +2738,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2751,14 +2754,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2768,14 +2771,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2784,14 +2787,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,14 +2804,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2824,13 +2827,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2841,7 +2844,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2857,21 +2860,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2883,14 +2886,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,14 +2903,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2916,14 +2919,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,11 +2936,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2949,20 +2952,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2973,7 +2976,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2989,13 +2992,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3022,7 +3025,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3032,14 +3035,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3048,14 +3051,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,14 +3068,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3088,7 +3091,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3098,7 +3101,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3121,7 +3124,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3131,14 +3134,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3147,14 +3150,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3187,7 +3190,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3197,14 +3200,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3213,14 +3216,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3237,7 +3240,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3253,7 +3256,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,14 +3266,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3279,14 +3282,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,14 +3299,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>182</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3319,7 +3322,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3329,7 +3332,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3352,21 +3355,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3378,24 +3381,24 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3418,7 +3421,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3428,11 +3431,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3444,14 +3447,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,11 +3464,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3477,14 +3480,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,14 +3497,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3510,14 +3513,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,11 +3530,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3543,14 +3546,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,14 +3563,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3576,14 +3579,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3616,7 +3619,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,14 +3629,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3642,7 +3645,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3659,11 +3662,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3682,7 +3685,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,11 +3695,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3708,7 +3711,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3725,11 +3728,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3741,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,14 +3761,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3774,14 +3777,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3791,14 +3794,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3807,14 +3810,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3824,14 +3827,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3840,14 +3843,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3860,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,14 +3876,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,14 +3893,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3913,7 +3916,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,11 +3926,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3946,7 +3949,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,14 +3959,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3972,14 +3975,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,11 +3992,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4005,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4025,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,14 +4058,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4071,14 +4074,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4091,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4107,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,14 +4124,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4137,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,14 +4157,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>252</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4170,14 +4173,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,14 +4190,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4203,31 +4206,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4236,14 +4239,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,11 +4256,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4269,14 +4272,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,11 +4289,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4302,14 +4305,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4322,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>268</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,14 +4338,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>45</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4368,14 +4371,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,14 +4388,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4404,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,14 +4421,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>62</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4434,14 +4437,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,14 +4454,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4467,14 +4470,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,14 +4487,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>179</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,7 +4503,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4517,14 +4520,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>285</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4533,7 +4536,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4550,14 +4553,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,14 +4569,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,14 +4586,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4606,7 +4609,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4616,11 +4619,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4639,7 +4642,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4649,11 +4652,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4672,7 +4675,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4682,11 +4685,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>104</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4698,14 +4701,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,11 +4718,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4738,7 +4741,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>296</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4748,14 +4751,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>298</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4764,14 +4767,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,14 +4784,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4804,7 +4807,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4814,14 +4817,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4837,7 +4840,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>302</v>
+        <v>179</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4847,14 +4850,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>104</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4863,14 +4866,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4880,11 +4883,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4896,14 +4899,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4913,49 +4916,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>306</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>226</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>27</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>258</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6747.75</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>306</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6817.75</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>307</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
         <v>308</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>309</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5474,10 +5510,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -932,7 +932,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 11:39 PM</t>
+    <t>Friday, 26 September, 2025 11:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-26_00-00.xlsx
+++ b/DaySale_2025-09-26_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>CLEAREST 14 CAPS</t>
   </si>
   <si>
@@ -410,6 +419,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
   </si>
   <si>
@@ -932,7 +950,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 11:44 PM</t>
+    <t>Friday, 26 September, 2025 11:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1969,7 +1987,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1979,11 +1997,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2012,7 +2030,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -2035,7 +2053,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2045,14 +2063,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2068,7 +2086,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2078,11 +2096,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2094,14 +2112,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2118,7 +2136,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2134,7 +2152,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2151,7 +2169,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2167,7 +2185,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2177,14 +2195,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2193,14 +2211,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2210,11 +2228,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2266,7 +2284,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2280,7 +2298,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2292,14 +2310,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2309,14 +2327,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2338,7 +2356,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2349,7 +2367,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2365,24 +2383,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2464,7 +2482,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2481,7 +2499,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2497,7 +2515,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2514,7 +2532,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2530,7 +2548,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2540,11 +2558,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2573,11 +2591,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2589,14 +2607,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2606,11 +2624,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2622,31 +2640,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2655,24 +2673,24 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2695,7 +2713,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2712,7 +2730,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2728,7 +2746,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2761,7 +2779,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2837,11 +2855,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2853,28 +2871,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2893,7 +2911,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2919,31 +2937,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2985,31 +3003,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3042,7 +3060,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3064,18 +3082,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3101,11 +3119,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3117,7 +3135,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3134,14 +3152,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3233,14 +3251,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3249,14 +3267,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3282,14 +3300,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>182</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3332,11 +3350,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3388,21 +3406,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3431,11 +3449,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3447,28 +3465,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3480,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3497,11 +3515,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3520,7 +3538,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3537,7 +3555,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3553,7 +3571,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3563,14 +3581,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3629,14 +3647,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,11 +3680,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3695,14 +3713,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,11 +3746,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3744,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3761,11 +3779,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3810,14 +3828,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3827,11 +3845,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3843,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3860,14 +3878,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3916,7 +3934,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,14 +4010,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4008,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4025,14 +4043,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4041,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4065,7 +4083,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4081,7 +4099,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,11 +4109,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4131,7 +4149,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4147,7 +4165,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,14 +4175,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4173,14 +4191,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>253</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4206,14 +4224,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4223,14 +4241,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4239,31 +4257,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>259</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4279,24 +4297,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4373,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>269</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4388,14 +4406,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4404,14 +4422,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4421,14 +4439,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>275</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4444,7 +4462,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4454,14 +4472,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4477,7 +4495,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4487,14 +4505,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4503,14 +4521,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4520,14 +4538,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>283</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4536,14 +4554,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4553,14 +4571,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>286</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4586,14 +4604,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4602,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4619,14 +4637,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>47</v>
+        <v>291</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4635,7 +4653,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4652,14 +4670,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4668,14 +4686,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4685,11 +4703,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4701,7 +4719,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4718,11 +4736,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4734,14 +4752,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4751,11 +4769,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4767,14 +4785,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4784,14 +4802,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>299</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4800,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4817,11 +4835,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4833,14 +4851,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4850,14 +4868,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>42</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4866,14 +4884,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4883,11 +4901,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>36</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4899,14 +4917,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4916,14 +4934,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4932,14 +4950,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4949,49 +4967,115 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6817.75</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>307</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>308</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>309</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>310</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>311</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>27</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>129</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>312</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>232</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>27</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>264</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6872.1999999999998</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>313</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>314</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>315</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5515,10 +5599,20 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
